--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_Maxconnect.xlsx
@@ -279,7 +279,7 @@
     <t>Maxconnect</t>
   </si>
   <si>
-    <t xml:space="preserve">ID mới : WP21120135S00101/00320026D2
+    <t xml:space="preserve">ID mới : WSP21060008S0375/0032000B32
 </t>
   </si>
 </sst>
@@ -735,28 +735,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,11 +756,32 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,41 +1122,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1201,58 +1201,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1277,23 +1277,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>44823</v>
       </c>
       <c r="C6" s="61">
-        <v>44825</v>
+        <v>44832</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
@@ -1318,7 +1318,7 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="79" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="63" t="s">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1380,7 +1380,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1556,7 +1556,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3361,6 +3361,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3372,13 +3379,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3422,39 +3422,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3499,58 +3499,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3575,23 +3575,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3648,7 +3648,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3824,7 +3824,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5627,13 +5627,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5645,6 +5638,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5688,39 +5688,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5765,58 +5765,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5841,23 +5841,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5883,7 +5883,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5914,7 +5914,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6090,7 +6090,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6148,7 +6148,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7893,13 +7893,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7911,6 +7904,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7954,39 +7954,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8031,58 +8031,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8107,23 +8107,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8180,7 +8180,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8209,7 +8209,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +8238,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8325,7 +8325,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8356,7 +8356,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10159,13 +10159,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10177,6 +10170,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10220,39 +10220,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10297,58 +10297,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10373,23 +10373,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10446,7 +10446,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10562,7 +10562,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10591,7 +10591,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10622,7 +10622,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10651,7 +10651,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10709,7 +10709,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12425,13 +12425,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12443,6 +12436,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12486,39 +12486,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12563,58 +12563,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12639,23 +12639,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12681,7 +12681,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12712,7 +12712,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12741,7 +12741,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12799,7 +12799,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12857,7 +12857,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12888,7 +12888,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12917,7 +12917,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12946,7 +12946,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12975,7 +12975,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14691,13 +14691,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14709,6 +14702,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14752,39 +14752,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14829,58 +14829,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14905,23 +14905,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14947,7 +14947,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14978,7 +14978,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15007,7 +15007,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15036,7 +15036,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15065,7 +15065,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15123,7 +15123,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15154,7 +15154,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15183,7 +15183,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15241,7 +15241,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16957,13 +16957,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16975,6 +16968,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17018,39 +17018,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17095,58 +17095,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17171,23 +17171,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17213,7 +17213,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17244,7 +17244,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17273,7 +17273,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17302,7 +17302,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17331,7 +17331,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17389,7 +17389,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17420,7 +17420,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17449,7 +17449,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17478,7 +17478,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17507,7 +17507,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19223,13 +19223,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19241,6 +19234,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19284,39 +19284,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19361,58 +19361,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19437,23 +19437,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19479,7 +19479,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19510,7 +19510,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19568,7 +19568,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19597,7 +19597,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19626,7 +19626,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19655,7 +19655,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19686,7 +19686,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19715,7 +19715,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19744,7 +19744,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19773,7 +19773,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21004,6 +21004,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21015,13 +21022,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
